--- a/medicine/Enfance/Éric_Simard/Éric_Simard.xlsx
+++ b/medicine/Enfance/Éric_Simard/Éric_Simard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Simard</t>
+          <t>Éric_Simard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éric Simard, né en 1962 à Joigny dans l'Yonne, est un écrivain français de romans pour la jeunesse. 
 Il est principalement connu pour sa série Le Souffle de la pierre d'Irlande, pour ses récits historiques tel que La femme noire qui refusa de se soumettre - Rosa Parks et pour ses récits courts tel que L'enfaon. Et il prépare d'autres courts récits dont L'embaleine, L'encygne L'engourou, L'enbeille, L'enlouve, et plusieurs autres[réf. nécessaire].
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Simard</t>
+          <t>Éric_Simard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeune il rêvait de devenir basketteur professionnel comme son père[réf. nécessaire], mais il n'a jamais réalisé ce rêve.
 Il intègre l'INSA de Lyon et obtient à 23 ans un diplôme de biochimie dont il ne se servira jamais.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Simard</t>
+          <t>Éric_Simard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Liste des œuvres d'Éric Simard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les passagers de l'orme, Magnard Jeunesse, 1998, roman
 La maison de l'inventeur, Épigones, 1999, roman
